--- a/final _production _files/BOM_JlcPCB.xlsx
+++ b/final _production _files/BOM_JlcPCB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prakhar\Documents\torque_motor_design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prakhar\Documents\Github\torque_Control\Servo_Torque_Control_Driver\final _production _files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16668BE2-75EA-4807-BF79-CDB4EC8A9F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E8EAD7-326D-4F1D-BA1B-BB99C1DEF07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{91661538-2AF7-4A4F-8C0C-B1F705A3944D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Comment</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>C527495</t>
-  </si>
-  <si>
-    <t>C14663</t>
   </si>
   <si>
     <t>C_0603_1608Metric</t>
@@ -630,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE769AE-C4D7-4783-A09E-A98606A513BF}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -644,7 +641,7 @@
     <col min="4" max="4" width="27.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5">
+    <row r="1" spans="1:4" ht="15.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -666,16 +663,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -689,7 +683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -703,7 +697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -717,7 +711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -731,7 +725,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -745,7 +739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -759,7 +753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -773,7 +767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>0.1</v>
       </c>
